--- a/Reports/Qref_March_2014.xlsx
+++ b/Reports/Qref_March_2014.xlsx
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -7611,17 +7611,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -7760,7 +7750,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8980,24 +8970,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="72686208"/>
-        <c:axId val="72724864"/>
+        <c:overlap val="100"/>
+        <c:axId val="102516992"/>
+        <c:axId val="102526976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72686208"/>
+        <c:axId val="102516992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72724864"/>
+        <c:crossAx val="102526976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72724864"/>
+        <c:axId val="102526976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9005,7 +8996,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72686208"/>
+        <c:crossAx val="102516992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9018,7 +9009,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9036,8 +9027,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9764,7 +9755,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:V13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
